--- a/results/I2_N10_T100_C325_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C325_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.6474223937857</v>
+        <v>181.9610138849955</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02199983596801758</v>
+        <v>0.01700019836425781</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>32.48101388499555</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.71579249669672</v>
+        <v>34.16886835983306</v>
       </c>
     </row>
     <row r="8">
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>30.34885527085025</v>
       </c>
     </row>
     <row r="9">
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.66758337047729</v>
+        <v>37.87444125446785</v>
       </c>
     </row>
     <row r="14">
@@ -1091,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37.90090852477161</v>
+        <v>35.35398438790794</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1369,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1402,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>295.9199999999997</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="28">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>323.5</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="29">
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>294.2649999999996</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="30">
@@ -1501,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>311.1</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="31">
@@ -1512,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>297.3649999999997</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
     <row r="32">
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="33">
@@ -1534,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="34">
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1556,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>146.3249999999992</v>
       </c>
     </row>
     <row r="36">
@@ -1567,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="37">
@@ -1644,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2149999999988</v>
+        <v>159.2149999999989</v>
       </c>
     </row>
     <row r="44">
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>142.1399999999988</v>
+        <v>142.1399999999989</v>
       </c>
     </row>
     <row r="45">
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>247.1799999999993</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>154.3</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1809,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>148.3449999999993</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="59">
@@ -1820,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>128.7049999999993</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="60">
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>146.3249999999993</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="61">
@@ -1842,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>134.2149999999993</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="62">
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>295.9199999999997</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="68">
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>323.5</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="69">
@@ -1930,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>294.2649999999996</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="70">
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>311.1</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="71">
@@ -1952,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>297.3649999999997</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
   </sheetData>

--- a/results/I2_N10_T100_C325_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C325_0_P5_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01700019836425781</v>
+        <v>0.01799988746643066</v>
       </c>
     </row>
     <row r="5">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>34.16886835983306</v>
       </c>
     </row>
     <row r="6">
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.16886835983306</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.34885527085025</v>
+        <v>33.8200130889828</v>
       </c>
     </row>
     <row r="9">
@@ -1091,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>35.35398438790794</v>
+        <v>36.48759645946009</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>46.91999999999942</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="18">
@@ -1369,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36.10499999999942</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>34.91499999999942</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="20">
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>37.48999999999942</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="21">
@@ -1402,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999941</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
     <row r="22">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>224.1799999999995</v>
+        <v>69.88000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>224.6649999999995</v>
+        <v>76.32000000000022</v>
       </c>
     </row>
     <row r="29">
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>201.1149999999995</v>
+        <v>72.41000000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1501,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>218.9699999999995</v>
+        <v>72.64500000000022</v>
       </c>
     </row>
     <row r="31">
@@ -1512,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>207.1049999999995</v>
+        <v>72.89000000000021</v>
       </c>
     </row>
     <row r="32">
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>177.26</v>
       </c>
     </row>
     <row r="33">
@@ -1534,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3449999999993</v>
+        <v>188.5600000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7049999999993</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="35">
@@ -1556,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999992</v>
+        <v>181.48</v>
       </c>
     </row>
     <row r="36">
@@ -1567,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2149999999993</v>
+        <v>167.6700000000001</v>
       </c>
     </row>
     <row r="37">
